--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptdss1-Scarb1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H2">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I2">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J2">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N2">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O2">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P2">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q2">
-        <v>560.6473513952423</v>
+        <v>1425.122443301722</v>
       </c>
       <c r="R2">
-        <v>5045.82616255718</v>
+        <v>12826.1019897155</v>
       </c>
       <c r="S2">
-        <v>0.1672120837025557</v>
+        <v>0.2366162559359155</v>
       </c>
       <c r="T2">
-        <v>0.1672120837025557</v>
+        <v>0.2366162559359155</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H3">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I3">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J3">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.180317</v>
       </c>
       <c r="O3">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P3">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q3">
-        <v>11.27086174416222</v>
+        <v>14.92743224351133</v>
       </c>
       <c r="R3">
-        <v>101.43775569746</v>
+        <v>134.346890191602</v>
       </c>
       <c r="S3">
-        <v>0.003361514636026834</v>
+        <v>0.00247843484943905</v>
       </c>
       <c r="T3">
-        <v>0.003361514636026834</v>
+        <v>0.002478434849439051</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H4">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I4">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J4">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N4">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O4">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P4">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q4">
-        <v>23.49973380198889</v>
+        <v>40.31007253196</v>
       </c>
       <c r="R4">
-        <v>211.4976042179</v>
+        <v>362.79065278764</v>
       </c>
       <c r="S4">
-        <v>0.007008754158397492</v>
+        <v>0.006692771195799777</v>
       </c>
       <c r="T4">
-        <v>0.007008754158397492</v>
+        <v>0.006692771195799778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.527126666666668</v>
+        <v>8.644702000000001</v>
       </c>
       <c r="H5">
-        <v>19.58138</v>
+        <v>25.934106</v>
       </c>
       <c r="I5">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="J5">
-        <v>0.2130391554800433</v>
+        <v>0.2659466972557785</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N5">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O5">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P5">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q5">
-        <v>118.8835294748111</v>
+        <v>121.4176030130727</v>
       </c>
       <c r="R5">
-        <v>1069.9517652733</v>
+        <v>1092.758427117654</v>
       </c>
       <c r="S5">
-        <v>0.0354568029830633</v>
+        <v>0.02015923527462412</v>
       </c>
       <c r="T5">
-        <v>0.03545680298306331</v>
+        <v>0.02015923527462412</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>32.334338</v>
       </c>
       <c r="I6">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J6">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N6">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O6">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P6">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q6">
-        <v>925.7856677526576</v>
+        <v>1776.825882222573</v>
       </c>
       <c r="R6">
-        <v>8332.071009773919</v>
+        <v>15991.43294000315</v>
       </c>
       <c r="S6">
-        <v>0.2761139425373864</v>
+        <v>0.2950103618658147</v>
       </c>
       <c r="T6">
-        <v>0.2761139425373864</v>
+        <v>0.2950103618658148</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>32.334338</v>
       </c>
       <c r="I7">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J7">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.180317</v>
       </c>
       <c r="O7">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P7">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q7">
         <v>18.61134675834955</v>
@@ -883,10 +883,10 @@
         <v>167.502120825146</v>
       </c>
       <c r="S7">
-        <v>0.005550801344605877</v>
+        <v>0.003090083387981115</v>
       </c>
       <c r="T7">
-        <v>0.005550801344605877</v>
+        <v>0.003090083387981116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>32.334338</v>
       </c>
       <c r="I8">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J8">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N8">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O8">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P8">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q8">
-        <v>38.80463663253222</v>
+        <v>50.25812380241334</v>
       </c>
       <c r="R8">
-        <v>349.24172969279</v>
+        <v>452.32311422172</v>
       </c>
       <c r="S8">
-        <v>0.01157341443333054</v>
+        <v>0.00834446832297416</v>
       </c>
       <c r="T8">
-        <v>0.01157341443333054</v>
+        <v>0.008344468322974164</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>32.334338</v>
       </c>
       <c r="I9">
-        <v>0.351787262211666</v>
+        <v>0.331579210752513</v>
       </c>
       <c r="J9">
-        <v>0.351787262211666</v>
+        <v>0.3315792107525131</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N9">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O9">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P9">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q9">
-        <v>196.3099753271478</v>
+        <v>151.3820378066824</v>
       </c>
       <c r="R9">
-        <v>1766.78977794433</v>
+        <v>1362.438340260142</v>
       </c>
       <c r="S9">
-        <v>0.0585491038963432</v>
+        <v>0.02513429717574298</v>
       </c>
       <c r="T9">
-        <v>0.05854910389634321</v>
+        <v>0.02513429717574299</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H10">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I10">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J10">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N10">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O10">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P10">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q10">
-        <v>581.7962105691181</v>
+        <v>1199.140293256329</v>
       </c>
       <c r="R10">
-        <v>5236.165895122062</v>
+        <v>10792.26263930696</v>
       </c>
       <c r="S10">
-        <v>0.1735196936495126</v>
+        <v>0.1990959358375192</v>
       </c>
       <c r="T10">
-        <v>0.1735196936495126</v>
+        <v>0.1990959358375192</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H11">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I11">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J11">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.180317</v>
       </c>
       <c r="O11">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P11">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q11">
-        <v>11.69602359894011</v>
+        <v>12.56038424079355</v>
       </c>
       <c r="R11">
-        <v>105.264212390461</v>
+        <v>113.043458167142</v>
       </c>
       <c r="S11">
-        <v>0.003488318409328058</v>
+        <v>0.002085428593270584</v>
       </c>
       <c r="T11">
-        <v>0.003488318409328058</v>
+        <v>0.002085428593270584</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H12">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I12">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J12">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N12">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O12">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P12">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q12">
-        <v>24.38619578127944</v>
+        <v>33.91809063449334</v>
       </c>
       <c r="R12">
-        <v>219.475762031515</v>
+        <v>305.26281571044</v>
       </c>
       <c r="S12">
-        <v>0.007273139880208865</v>
+        <v>0.005631496193292149</v>
       </c>
       <c r="T12">
-        <v>0.007273139880208863</v>
+        <v>0.005631496193292149</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.773344333333333</v>
+        <v>7.273908666666667</v>
       </c>
       <c r="H13">
-        <v>20.320033</v>
+        <v>21.821726</v>
       </c>
       <c r="I13">
-        <v>0.2210754640197275</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="J13">
-        <v>0.2210754640197274</v>
+        <v>0.2237754391117454</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N13">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O13">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P13">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q13">
-        <v>123.3680793736006</v>
+        <v>102.1643724494704</v>
       </c>
       <c r="R13">
-        <v>1110.312714362405</v>
+        <v>919.4793520452341</v>
       </c>
       <c r="S13">
-        <v>0.0367943120806779</v>
+        <v>0.0169625784876634</v>
       </c>
       <c r="T13">
-        <v>0.0367943120806779</v>
+        <v>0.0169625784876634</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H14">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I14">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J14">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>85.89497033333333</v>
+        <v>164.855011</v>
       </c>
       <c r="N14">
-        <v>257.684911</v>
+        <v>494.565033</v>
       </c>
       <c r="O14">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256036</v>
       </c>
       <c r="P14">
-        <v>0.7848889718219874</v>
+        <v>0.8897130830256037</v>
       </c>
       <c r="Q14">
-        <v>563.4341850760504</v>
+        <v>957.58835674537</v>
       </c>
       <c r="R14">
-        <v>5070.907665684454</v>
+        <v>8618.295210708331</v>
       </c>
       <c r="S14">
-        <v>0.1680432519325326</v>
+        <v>0.1589905293863541</v>
       </c>
       <c r="T14">
-        <v>0.1680432519325326</v>
+        <v>0.1589905293863542</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H15">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I15">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J15">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>5.180317</v>
       </c>
       <c r="O15">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703988999</v>
       </c>
       <c r="P15">
-        <v>0.0157788582500353</v>
+        <v>0.009319291703989001</v>
       </c>
       <c r="Q15">
-        <v>11.32688629692644</v>
+        <v>10.03025064946333</v>
       </c>
       <c r="R15">
-        <v>101.941976672338</v>
+        <v>90.27225584517001</v>
       </c>
       <c r="S15">
-        <v>0.003378223860074528</v>
+        <v>0.00166534487329825</v>
       </c>
       <c r="T15">
-        <v>0.003378223860074528</v>
+        <v>0.001665344873298251</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H16">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I16">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J16">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.600318333333334</v>
+        <v>4.66298</v>
       </c>
       <c r="N16">
-        <v>10.800955</v>
+        <v>13.98894</v>
       </c>
       <c r="O16">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701085</v>
       </c>
       <c r="P16">
-        <v>0.03289890134329811</v>
+        <v>0.02516583685701086</v>
       </c>
       <c r="Q16">
-        <v>23.61654493020778</v>
+        <v>27.0857120366</v>
       </c>
       <c r="R16">
-        <v>212.54890437187</v>
+        <v>243.7714083294</v>
       </c>
       <c r="S16">
-        <v>0.007043592871361208</v>
+        <v>0.004497101144944764</v>
       </c>
       <c r="T16">
-        <v>0.007043592871361207</v>
+        <v>0.004497101144944764</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>6.559571333333333</v>
+        <v>5.80867</v>
       </c>
       <c r="H17">
-        <v>19.678714</v>
+        <v>17.42601</v>
       </c>
       <c r="I17">
-        <v>0.2140981182885632</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="J17">
-        <v>0.2140981182885631</v>
+        <v>0.1786986528799631</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>18.21376166666667</v>
+        <v>14.04531966666667</v>
       </c>
       <c r="N17">
-        <v>54.641285</v>
+        <v>42.135959</v>
       </c>
       <c r="O17">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339644</v>
       </c>
       <c r="P17">
-        <v>0.1664332685846793</v>
+        <v>0.07580178841339645</v>
       </c>
       <c r="Q17">
-        <v>119.4744689008322</v>
+        <v>81.58462698817667</v>
       </c>
       <c r="R17">
-        <v>1075.27022010749</v>
+        <v>734.2616428935901</v>
       </c>
       <c r="S17">
-        <v>0.03563304962459487</v>
+        <v>0.01354567747536594</v>
       </c>
       <c r="T17">
-        <v>0.03563304962459487</v>
+        <v>0.01354567747536594</v>
       </c>
     </row>
   </sheetData>
